--- a/Listas/Ejemplo.xlsx
+++ b/Listas/Ejemplo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Petrelli\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Petrelli\Desktop\Facultad\2021\Python\Trabajo Practico\Soporte2021-TPI-Grupo04\Listas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF131BA-663F-4F93-9A37-E6F7BF6F3659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B0EBB0-B523-42DF-9F93-802FCABFB1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8F707391-343E-486C-9FE5-D2AC0F6D368B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>ID</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Cat chow</t>
+  </si>
+  <si>
+    <t>TEST</t>
   </si>
 </sst>
 </file>
@@ -90,8 +93,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,16 +410,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F90EB9D0-5A75-4461-BBFA-3365505D6CEB}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" customWidth="1"/>
     <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -425,7 +430,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -436,8 +441,8 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>700</v>
+      <c r="C2" s="1">
+        <v>123456.452</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -447,7 +452,7 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>500</v>
       </c>
     </row>
@@ -458,8 +463,8 @@
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4">
-        <v>800</v>
+      <c r="C4" s="1">
+        <v>4897.46</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -469,8 +474,8 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
-        <v>900</v>
+      <c r="C5" s="1">
+        <v>1234.4000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -480,8 +485,8 @@
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6">
-        <v>600</v>
+      <c r="C6" s="1">
+        <v>234567.2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -491,8 +496,8 @@
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7">
-        <v>750</v>
+      <c r="C7" s="1">
+        <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -502,8 +507,19 @@
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8">
-        <v>620</v>
+      <c r="C8" s="1">
+        <v>5456.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>7892.7</v>
       </c>
     </row>
   </sheetData>
